--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid208596"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid457438"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid457438"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid189765"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid189765"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid866432"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>27/06/2024</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
     <t>27/03/2024</t>
-  </si>
-  <si>
-    <t>0.008</t>
   </si>
   <si>
     <t>28/12/2023</t>
@@ -532,18 +535,18 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -573,21 +576,21 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -598,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -609,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -620,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -642,18 +645,18 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -664,18 +667,18 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -686,7 +689,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -697,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +711,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -774,7 +777,7 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -785,7 +788,7 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -796,18 +799,18 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -818,18 +821,18 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
         <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -837,65 +840,76 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
         <v>42</v>
       </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
         <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid866432"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid968530"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid968530"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid444900"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid882462"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid242656"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>XD Date</t>
   </si>
@@ -30,6 +30,156 @@
   </si>
   <si>
     <t>0.008</t>
+  </si>
+  <si>
+    <t>27/06/2024</t>
+  </si>
+  <si>
+    <t>27/03/2024</t>
+  </si>
+  <si>
+    <t>28/12/2023</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>28/09/2023</t>
+  </si>
+  <si>
+    <t>28/06/2023</t>
+  </si>
+  <si>
+    <t>30/03/2023</t>
+  </si>
+  <si>
+    <t>29/12/2022</t>
+  </si>
+  <si>
+    <t>30/12/2022</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>29/09/2022</t>
+  </si>
+  <si>
+    <t>29/06/2022</t>
+  </si>
+  <si>
+    <t>30/03/2022</t>
+  </si>
+  <si>
+    <t>30/12/2021</t>
+  </si>
+  <si>
+    <t>29/09/2021</t>
+  </si>
+  <si>
+    <t>29/06/2021</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>30/03/2021</t>
+  </si>
+  <si>
+    <t>29/12/2020</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>28/09/2020</t>
+  </si>
+  <si>
+    <t>26/06/2020</t>
+  </si>
+  <si>
+    <t>30/03/2020</t>
+  </si>
+  <si>
+    <t>27/12/2019</t>
+  </si>
+  <si>
+    <t>26/09/2019</t>
+  </si>
+  <si>
+    <t>26/06/2019</t>
+  </si>
+  <si>
+    <t>27/03/2019</t>
+  </si>
+  <si>
+    <t>27/12/2018</t>
+  </si>
+  <si>
+    <t>26/09/2018</t>
+  </si>
+  <si>
+    <t>27/06/2018</t>
+  </si>
+  <si>
+    <t>28/03/2018</t>
+  </si>
+  <si>
+    <t>27/12/2017</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>27/09/2017</t>
+  </si>
+  <si>
+    <t>27/06/2017</t>
+  </si>
+  <si>
+    <t>0.010</t>
+  </si>
+  <si>
+    <t>29/03/2017</t>
+  </si>
+  <si>
+    <t>28/12/2016</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>28/09/2016</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>28/06/2016</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>30/03/2016</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>29/12/2015</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>28/09/2015</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>0.013</t>
   </si>
 </sst>
 </file>
@@ -380,6 +530,402 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid242656"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid685764"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid685764"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid238877"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>30/12/2024</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
     <t>27/09/2024</t>
-  </si>
-  <si>
-    <t>0.008</t>
   </si>
   <si>
     <t>27/06/2024</t>
@@ -560,18 +563,18 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -601,21 +604,21 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -626,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -637,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +651,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -670,18 +673,18 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -692,18 +695,18 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -714,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -725,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -736,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -802,7 +805,7 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -813,7 +816,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -824,18 +827,18 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
         <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -846,18 +849,18 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
         <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33">
@@ -865,65 +868,76 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
         <v>44</v>
       </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
         <v>48</v>
       </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
         <v>52</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
         <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid238877"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid720485"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>27/03/2025</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
     <t>30/12/2024</t>
-  </si>
-  <si>
-    <t>0.008</t>
   </si>
   <si>
     <t>27/09/2024</t>
@@ -574,18 +577,18 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -615,21 +618,21 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -640,7 +643,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -651,7 +654,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -662,7 +665,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -684,18 +687,18 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -706,18 +709,18 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -728,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -739,7 +742,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -750,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -816,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -827,7 +830,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -838,18 +841,18 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
         <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="32">
@@ -860,18 +863,18 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34">
@@ -879,65 +882,76 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
         <v>47</v>
       </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
         <v>49</v>
       </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
         <v>53</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
         <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid720485"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid33341"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid33341"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid767500"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid767500"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid491549"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid491549"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid332038"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>27/06/2025</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
     <t>27/03/2025</t>
-  </si>
-  <si>
-    <t>0.008</t>
   </si>
   <si>
     <t>30/12/2024</t>
@@ -588,18 +591,18 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -629,21 +632,21 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -654,7 +657,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -665,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -676,7 +679,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -698,18 +701,18 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -720,18 +723,18 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
         <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -742,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -753,7 +756,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -764,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -830,7 +833,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -841,7 +844,7 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -852,18 +855,18 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
         <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="33">
@@ -874,18 +877,18 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
         <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -893,65 +896,76 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
         <v>46</v>
       </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
         <v>48</v>
       </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
         <v>50</v>
       </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
         <v>52</v>
       </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
         <v>54</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
         <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid332038"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid608129"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid608129"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid269744"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,6 +26,12 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>29/09/2025</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
     <t>27/06/2025</t>
   </si>
   <si>
@@ -87,9 +93,6 @@
   </si>
   <si>
     <t>29/06/2021</t>
-  </si>
-  <si>
-    <t>0.009</t>
   </si>
   <si>
     <t>30/03/2021</t>
@@ -547,62 +550,62 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -613,106 +616,106 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -723,7 +726,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -734,18 +737,18 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -756,7 +759,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -767,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -778,7 +781,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -789,7 +792,7 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -800,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +814,7 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -822,7 +825,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -833,7 +836,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -844,7 +847,7 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -855,7 +858,7 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -866,18 +869,18 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
         <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -888,18 +891,18 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
         <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36">
@@ -907,65 +910,76 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
         <v>47</v>
       </c>
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
         <v>49</v>
       </c>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
         <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid269744"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid647106"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid647106"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid319866"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid319866"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid442169"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid442169"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid622794"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>30/12/2025</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
     <t>29/09/2025</t>
-  </si>
-  <si>
-    <t>0.009</t>
   </si>
   <si>
     <t>27/06/2025</t>
@@ -550,18 +553,18 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -583,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -594,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -616,18 +619,18 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -638,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -649,7 +652,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -657,21 +660,21 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -682,7 +685,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -693,7 +696,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -704,7 +707,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -715,7 +718,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -726,7 +729,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -748,18 +751,18 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
         <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -770,7 +773,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -781,7 +784,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -792,7 +795,7 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -803,7 +806,7 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -814,7 +817,7 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +828,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -836,7 +839,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -847,7 +850,7 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -858,7 +861,7 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -880,18 +883,18 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
         <v>42</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -902,18 +905,18 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
         <v>45</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="37">
@@ -921,65 +924,76 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
         <v>48</v>
       </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
         <v>50</v>
       </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
         <v>52</v>
       </c>
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
         <v>56</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
         <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
